--- a/results/I3_N5_M3_T45_C200_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.64645279649577</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1529998779296875</v>
+        <v>0.08899998664855957</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>36.23964284834934</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31.60181147454997</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>32.4890962215229</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.48909622152298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4419999999991</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>47.94199999999364</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>130.7890000000207</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>77.52000000000044</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.843999999981</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>130.7890000000318</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>176.8439999999866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>128.4419999999952</v>
+        <v>110.6</v>
       </c>
     </row>
   </sheetData>
